--- a/project/план.xlsx
+++ b/project/план.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070439D7-4B08-4BA6-8663-D3DEADCB6143}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Название затеи</t>
   </si>
@@ -43,10 +42,31 @@
     <t>https://www.lamoda.ru/</t>
   </si>
   <si>
-    <t>https://hh.ru/</t>
+    <t xml:space="preserve">    Комментарии
+</t>
   </si>
   <si>
-    <t>https://ru.linkedin.com/</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Гостевой режим</t>
+    </r>
   </si>
   <si>
     <r>
@@ -55,6 +75,18 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -63,13 +95,167 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">1. Регистрация
-2. Авторизация
-3. Личный кабинет(отображение заказов, покупок, личной скидки, суммы выкупа и т. д.)
-4. Отображение товаров, находящихся в корзине 
-5. Возможность оплатить товар
-6. Отображение инфы об интересущем товаре (динамика цены, цена, картинка, отзывы, оценка покупателей)
-7. Возможность оставить отзыв о купленном товаре
-8. Пожаловаться на продавца
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2. Авторизация
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3. Личный кабинет(отображение заказов, покупок, личной скидки, суммы выкупа и т. д.)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">4. Отображение товаров, находящихся в корзине 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">5. Возможность оплатить товар
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">6. Отображение инфы об интересущем товаре (динамика цены, цена, картинка, отзывы, оценка покупателей)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">7. Возможность оставить отзыв о купленном товаре
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">8. Пожаловаться на продавца
 </t>
     </r>
     <r>
@@ -87,6 +273,18 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -95,10 +293,98 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">1. Регистрация магазина
-2. Авторизация
-3. Выставить товар на продажу
-4. Изменить информацию о товаре
-5. Возможность отвечать на отзывы  покупателей
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2. Авторизация
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3. Выставить товар на продажу
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">4. Изменить информацию о товаре
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">5. Возможность отвечать на отзывы  покупателей
 </t>
     </r>
     <r>
@@ -116,6 +402,18 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -124,8 +422,86 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">1. Вход в систему
-2. Бан продавца или пользователя
-3. Повышение личной скидки покупателя </t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2. Бан продавца или пользователя
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.Удалить продавца/пользователя</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3. Повышение личной скидки покупателя </t>
     </r>
     <r>
       <rPr>
@@ -140,114 +516,13 @@
       <t xml:space="preserve">
 </t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Работодатель:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1. Зарегистрировать свою компанию
-2. Авторизоваться
-3. Публиковать объявления о работе
-4. Смотреть, кто отозвался на отклики
-5. Запросить кандидата на собес
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Потенциальный работник</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">:
-1. Регистрация
-2. Авторизация
-3. Создать свое резюме
-4. Отозваться на работу
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Модератор:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">1. Вход в систему
-2. Проверка лицензии у компании
-3. Бан
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Сайт для поиска
- работы
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Комментарии
-</t>
-  </si>
-  <si>
-    <t>Для каждого
-из проектов будет
-добавлен гостевой
-режим</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,23 +531,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -324,6 +582,47 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -349,39 +648,33 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -663,23 +956,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="37.44140625" customWidth="1"/>
+    <col min="4" max="4" width="32.88671875" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="168.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="168.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -690,77 +983,59 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>12</v>
+      <c r="E1" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:5" ht="164.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>13</v>
+      <c r="E2" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
+    <row r="3" spans="1:5" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="12"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="188.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="188.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="12"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" ht="171" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="12"/>
+    <row r="5" spans="1:5" ht="171" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="12"/>
+    <row r="6" spans="1:5" ht="181.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="E2:E6"/>
+  <mergeCells count="3">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="D2:D4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{F601B76D-39EC-40A4-9B30-3A2AB7BFBD3B}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{FEB32DEE-3378-4F71-9A16-EA7D0B18F2A9}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00D65B21-ECF9-4C0B-9989-F85C1E5AE8BD}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{84BF7F0A-8802-4EBD-BBCB-E5C8F7298356}"/>
+    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
 </worksheet>
 </file>
--- a/project/план.xlsx
+++ b/project/план.xlsx
@@ -215,7 +215,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFF00"/>
+        <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -522,12 +522,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -648,33 +656,33 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -988,34 +996,34 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="164.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="9"/>
+      <c r="D3" s="10"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="188.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="171" customHeight="1" x14ac:dyDescent="0.3">

--- a/project/план.xlsx
+++ b/project/план.xlsx
@@ -123,7 +123,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFF00"/>
+        <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -192,7 +192,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFF00"/>
+        <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -344,7 +344,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFF00"/>
+        <color rgb="FF00B050"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -522,7 +522,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -615,14 +615,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFF00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
